--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_206__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_206__Reeval_Halton_Modell_1.1.xlsx
@@ -5987,13 +5987,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>54.16986465454102</c:v>
+                  <c:v>54.16986083984375</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>47.00485992431641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.027373790740967</c:v>
+                  <c:v>-2.027371406555176</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>40.56401824951172</c:v>
@@ -6005,10 +6005,10 @@
                   <c:v>-3.130619764328003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.20760440826416</c:v>
+                  <c:v>2.20760178565979</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.765746116638184</c:v>
+                  <c:v>-2.765748500823975</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-3.410567283630371</c:v>
@@ -6020,25 +6020,25 @@
                   <c:v>47.68561553955078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.2667554020881653</c:v>
+                  <c:v>-0.2667529284954071</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.04561260342597961</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.50674057006836</c:v>
+                  <c:v>11.50674152374268</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.85686492919922</c:v>
+                  <c:v>44.85686111450195</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.213443994522095</c:v>
+                  <c:v>-3.213441610336304</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.3655319511890411</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46.29540252685547</c:v>
+                  <c:v>46.29540634155273</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-0.3655319511890411</c:v>
@@ -6053,7 +6053,7 @@
                   <c:v>-0.891329288482666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5204070210456848</c:v>
+                  <c:v>0.5204095244407654</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7.588285446166992</c:v>
@@ -6080,7 +6080,7 @@
                   <c:v>-0.3655319511890411</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.54843902587891</c:v>
+                  <c:v>44.54844665527344</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-1.674879431724548</c:v>
@@ -6095,7 +6095,7 @@
                   <c:v>-0.3655319511890411</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.616479873657227</c:v>
+                  <c:v>-2.616484642028809</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.558694243431091</c:v>
@@ -6107,58 +6107,58 @@
                   <c:v>44.01069641113281</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>48.50434875488281</c:v>
+                  <c:v>48.50434494018555</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.9102457165718079</c:v>
+                  <c:v>-0.9102482199668884</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2.794001579284668</c:v>
+                  <c:v>-2.793996572494507</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.455183029174805</c:v>
+                  <c:v>-1.455187916755676</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.298871278762817</c:v>
+                  <c:v>-1.298868894577026</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>52.69491577148438</c:v>
+                  <c:v>52.69491958618164</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.7674380540847778</c:v>
+                  <c:v>-0.7674404978752136</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-3.094117879867554</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-2.359473705291748</c:v>
+                  <c:v>-2.359476089477539</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>56.04732513427734</c:v>
+                  <c:v>56.04732894897461</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>6.964553833007812</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>45.66250991821289</c:v>
+                  <c:v>45.66251373291016</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>46.55661773681641</c:v>
+                  <c:v>46.55662155151367</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-1.175009489059448</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54.91423797607422</c:v>
+                  <c:v>54.91424560546875</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.245442152023315</c:v>
+                  <c:v>-1.245444536209106</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>45.3525505065918</c:v>
+                  <c:v>45.35255813598633</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-2.187946319580078</c:v>
+                  <c:v>-2.18795108795166</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-2.902274370193481</c:v>
@@ -6170,19 +6170,19 @@
                   <c:v>-0.3655319511890411</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.6608326435089111</c:v>
+                  <c:v>0.6608301997184753</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-2.793972015380859</c:v>
+                  <c:v>-2.793969631195068</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-2.942039966583252</c:v>
+                  <c:v>-2.942042350769043</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45.50577926635742</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.83923351764679</c:v>
+                  <c:v>-1.839231133460999</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>48.53401184082031</c:v>
@@ -6203,7 +6203,7 @@
                   <c:v>52.67710876464844</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>55.98749923706055</c:v>
+                  <c:v>55.98749542236328</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>56.75141143798828</c:v>
@@ -6215,19 +6215,19 @@
                   <c:v>-0.4540165662765503</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>17.78123474121094</c:v>
+                  <c:v>17.7812328338623</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>52.36243438720703</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>17.52109336853027</c:v>
+                  <c:v>17.52109146118164</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>20.86865234375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.712059020996094</c:v>
+                  <c:v>-1.712056517601013</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>56.41368103027344</c:v>
@@ -6254,13 +6254,13 @@
                   <c:v>-1.77735424041748</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-2.811358690261841</c:v>
+                  <c:v>-2.811356067657471</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>25.19020080566406</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.1649460196495056</c:v>
+                  <c:v>-0.1649484783411026</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>50.66984939575195</c:v>
@@ -6278,7 +6278,7 @@
                   <c:v>56.88405990600586</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>45.69952011108398</c:v>
+                  <c:v>45.69952774047852</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>34.01800537109375</c:v>
@@ -6979,7 +6979,7 @@
         <v>51.7318</v>
       </c>
       <c r="F2">
-        <v>54.16986465454102</v>
+        <v>54.16986083984375</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-2.027373790740967</v>
+        <v>-2.027371406555176</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.20760440826416</v>
+        <v>2.20760178565979</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-2.765746116638184</v>
+        <v>-2.765748500823975</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.2667554020881653</v>
+        <v>-0.2667529284954071</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>48.3736</v>
       </c>
       <c r="F15">
-        <v>11.50674057006836</v>
+        <v>11.50674152374268</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>44.85686492919922</v>
+        <v>44.85686111450195</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-3.213443994522095</v>
+        <v>-3.213441610336304</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>46.29540252685547</v>
+        <v>46.29540634155273</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>0.5204070210456848</v>
+        <v>0.5204095244407654</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>45.5077</v>
       </c>
       <c r="F33">
-        <v>44.54843902587891</v>
+        <v>44.54844665527344</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-2.616479873657227</v>
+        <v>-2.616484642028809</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>33.8124</v>
       </c>
       <c r="F42">
-        <v>48.50434875488281</v>
+        <v>48.50434494018555</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>43.2953</v>
       </c>
       <c r="F43">
-        <v>-0.9102457165718079</v>
+        <v>-0.9102482199668884</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-2.794001579284668</v>
+        <v>-2.793996572494507</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-1.455183029174805</v>
+        <v>-1.455187916755676</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-1.298871278762817</v>
+        <v>-1.298868894577026</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>52.69491577148438</v>
+        <v>52.69491958618164</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-0.7674380540847778</v>
+        <v>-0.7674404978752136</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-2.359473705291748</v>
+        <v>-2.359476089477539</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>46.2899</v>
       </c>
       <c r="F51">
-        <v>56.04732513427734</v>
+        <v>56.04732894897461</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>45.66250991821289</v>
+        <v>45.66251373291016</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>57.1504</v>
       </c>
       <c r="F54">
-        <v>46.55661773681641</v>
+        <v>46.55662155151367</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>48.3275</v>
       </c>
       <c r="F56">
-        <v>54.91423797607422</v>
+        <v>54.91424560546875</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-1.245442152023315</v>
+        <v>-1.245444536209106</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>43.4308</v>
       </c>
       <c r="F58">
-        <v>45.3525505065918</v>
+        <v>45.35255813598633</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-2.187946319580078</v>
+        <v>-2.18795108795166</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.6608326435089111</v>
+        <v>0.6608301997184753</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-2.793972015380859</v>
+        <v>-2.793969631195068</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>-2.942039966583252</v>
+        <v>-2.942042350769043</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-1.83923351764679</v>
+        <v>-1.839231133460999</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>55.98749923706055</v>
+        <v>55.98749542236328</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>17.78123474121094</v>
+        <v>17.7812328338623</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>17.52109336853027</v>
+        <v>17.52109146118164</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>-1.712059020996094</v>
+        <v>-1.712056517601013</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-2.811358690261841</v>
+        <v>-2.811356067657471</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>-0.1649460196495056</v>
+        <v>-0.1649484783411026</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>45.4271</v>
       </c>
       <c r="F99">
-        <v>45.69952011108398</v>
+        <v>45.69952774047852</v>
       </c>
     </row>
     <row r="100" spans="1:6">
